--- a/biology/Zoologie/Alburnus/Alburnus.xlsx
+++ b/biology/Zoologie/Alburnus/Alburnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus est un genre de poissons téléostéens de la famille des Cyprinidae et de l'ordre des Cypriniformes. Ces poissons sont communément appelés « ablettes »[1] mais quelques espèces sont dénommées « shemayas »[2]. Le genre se rencontre dans le Paléarctique occidental, et au niveau du Centre de diversité de Turquie[3].
-Le genre Chalcalburnus n'est désormais plus reconnu comme valide et toutes les espèces qui y étaient rattachées le sont désormais sous le genre Alburnus[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus est un genre de poissons téléostéens de la famille des Cyprinidae et de l'ordre des Cypriniformes. Ces poissons sont communément appelés « ablettes » mais quelques espèces sont dénommées « shemayas ». Le genre se rencontre dans le Paléarctique occidental, et au niveau du Centre de diversité de Turquie.
+Le genre Chalcalburnus n'est désormais plus reconnu comme valide et toutes les espèces qui y étaient rattachées le sont désormais sous le genre Alburnus.
 </t>
         </is>
       </c>
@@ -512,25 +524,27 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (11 mars 2018)[5] ce genre comporterait les 46 espèces suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (11 mars 2018) ce genre comporterait les 46 espèces suivantes :
 Alburnus adanensis Battalgazi, 1944
 † Alburnus akili Battalgil, 1942 - espèce éteinte selon l'IUCN
 Alburnus albidus (Costa, 1838)
 Alburnus alburnus (Linnaeus, 1758)
-Alburnus amirkabiri Mousavi-Sabet, Vatandoust, Khataminejad, Eagderi, Abbasi, M. Nasri, Jouladeh &amp; Vasil'eva, 2015[6]
+Alburnus amirkabiri Mousavi-Sabet, Vatandoust, Khataminejad, Eagderi, Abbasi, M. Nasri, Jouladeh &amp; Vasil'eva, 2015
 Alburnus arborella (Bonaparte, 1841)
 Alburnus atropatenae Berg, 1925
-Alburnus attalus Özuluğ &amp; Freyhof, 2007[4]
+Alburnus attalus Özuluğ &amp; Freyhof, 2007
 Alburnus baliki Bogutskaya, Küçük &amp; Ünlü, 2000
-Alburnus battalgilae Özuluğ &amp; Freyhof, 2007[4]
+Alburnus battalgilae Özuluğ &amp; Freyhof, 2007
 Alburnus belvica Karaman, 1924
 Alburnus caeruleus Heckel, 1843
 Alburnus carinatus Battalgil, 1941
 Alburnus chalcoides (Güldenstädt, 1772)
 † Alburnus danubicus Antipa, 1909 - espèce éteinte selon l'IUCN
-Alburnus demiri Özuluğ &amp; Freyhof, 2008[3]
+Alburnus demiri Özuluğ &amp; Freyhof, 2008
 Alburnus derjugini Berg, 1923
 Alburnus doriae De Filippi, 1865
 Alburnus escherichii Steindachner, 1897
@@ -546,23 +560,23 @@
 Alburnus mentoides Kessler, 1859
 Alburnus mossulensis Heckel, 1843
 Alburnus nasreddini Battalgil, 1943
-Alburnus neretvae Buj, Sanda &amp; Perea, 2010[1]
+Alburnus neretvae Buj, Sanda &amp; Perea, 2010
 † Alburnus nicaeensis Battalgil, 1941 - espèce éteinte selon l'IUCN
 Alburnus orontis Sauvage, 1882
 Alburnus qalilus Krupp, 1992
 Alburnus sarmaticus Freyhof &amp; Kottelat, 2007
 Alburnus schischkovi (Drensky, 1943)
 Alburnus scoranza Heckel &amp; Kner, 1857
-Alburnus selcuklui M. Elp, F. Şen &amp; Özuluğ, 2015[7]
+Alburnus selcuklui M. Elp, F. Şen &amp; Özuluğ, 2015
 Alburnus sellal Heckel, 1843
 Alburnus tarichi (Güldenstädt, 1814)
 Alburnus thessalicus (Stephanidis, 1950)
 Alburnus timarensis Kuru, 1980
-Alburnus vistonicus Freyhof &amp; Kottelat, 2007[2]
+Alburnus vistonicus Freyhof &amp; Kottelat, 2007
 Alburnus volviticus Freyhof &amp; Kottelat, 2007
 Alburnus zagrosensis Coad, 2009
 Auxquelles pourrait s'ajouter une espèce découverte en 2017 :
-Alburnus sava Bogutskaya, Zupančič, Jelić, Diripasko &amp; Naseka, 2017[8]</t>
+Alburnus sava Bogutskaya, Zupančič, Jelić, Diripasko &amp; Naseka, 2017</t>
         </is>
       </c>
     </row>
@@ -590,7 +604,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rafinesque, 1820 : Ichthyologia ohiensis, or Natural history of the fishes inhabiting the river Ohio and its tributary streams, preceded by a physical description of the Ohio and its branches  (texte intégral).</t>
         </is>
